--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H2">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I2">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J2">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.40118833281941</v>
+        <v>3.460132666666667</v>
       </c>
       <c r="N2">
-        <v>3.40118833281941</v>
+        <v>10.380398</v>
       </c>
       <c r="O2">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="P2">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="Q2">
-        <v>36.09082913833096</v>
+        <v>42.50768252152022</v>
       </c>
       <c r="R2">
-        <v>36.09082913833096</v>
+        <v>382.569142693682</v>
       </c>
       <c r="S2">
-        <v>0.001833668071768349</v>
+        <v>0.002068965983663684</v>
       </c>
       <c r="T2">
-        <v>0.001833668071768349</v>
+        <v>0.002068965983663684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H3">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I3">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J3">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>181.853066575229</v>
+        <v>183.09167</v>
       </c>
       <c r="N3">
-        <v>181.853066575229</v>
+        <v>549.27501</v>
       </c>
       <c r="O3">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143522</v>
       </c>
       <c r="P3">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143523</v>
       </c>
       <c r="Q3">
-        <v>1929.686718820283</v>
+        <v>2249.278663697177</v>
       </c>
       <c r="R3">
-        <v>1929.686718820283</v>
+        <v>20243.50797327459</v>
       </c>
       <c r="S3">
-        <v>0.09804166347229053</v>
+        <v>0.1094785875615299</v>
       </c>
       <c r="T3">
-        <v>0.09804166347229053</v>
+        <v>0.1094785875615299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H4">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I4">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J4">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.0026190785927</v>
+        <v>27.44640466666667</v>
       </c>
       <c r="N4">
-        <v>27.0026190785927</v>
+        <v>82.339214</v>
       </c>
       <c r="O4">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="P4">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="Q4">
-        <v>286.5312990901259</v>
+        <v>337.1787062291363</v>
       </c>
       <c r="R4">
-        <v>286.5312990901259</v>
+        <v>3034.608356062226</v>
       </c>
       <c r="S4">
-        <v>0.01455780615873567</v>
+        <v>0.01641141629517525</v>
       </c>
       <c r="T4">
-        <v>0.01455780615873567</v>
+        <v>0.01641141629517525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H5">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I5">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J5">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.40118833281941</v>
+        <v>3.460132666666667</v>
       </c>
       <c r="N5">
-        <v>3.40118833281941</v>
+        <v>10.380398</v>
       </c>
       <c r="O5">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="P5">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="Q5">
-        <v>218.4799620797043</v>
+        <v>227.0024326531173</v>
       </c>
       <c r="R5">
-        <v>218.4799620797043</v>
+        <v>2043.021893878056</v>
       </c>
       <c r="S5">
-        <v>0.01110031939834898</v>
+        <v>0.0110488336109698</v>
       </c>
       <c r="T5">
-        <v>0.01110031939834898</v>
+        <v>0.0110488336109698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H6">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I6">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J6">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>181.853066575229</v>
+        <v>183.09167</v>
       </c>
       <c r="N6">
-        <v>181.853066575229</v>
+        <v>549.27501</v>
       </c>
       <c r="O6">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143522</v>
       </c>
       <c r="P6">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143523</v>
       </c>
       <c r="Q6">
-        <v>11681.57926041656</v>
+        <v>12011.75171371708</v>
       </c>
       <c r="R6">
-        <v>11681.57926041656</v>
+        <v>108105.7654234537</v>
       </c>
       <c r="S6">
-        <v>0.5935064233508424</v>
+        <v>0.5846450388659251</v>
       </c>
       <c r="T6">
-        <v>0.5935064233508424</v>
+        <v>0.5846450388659252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H7">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I7">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J7">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.0026190785927</v>
+        <v>27.44640466666667</v>
       </c>
       <c r="N7">
-        <v>27.0026190785927</v>
+        <v>82.339214</v>
       </c>
       <c r="O7">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="P7">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="Q7">
-        <v>1734.549991077156</v>
+        <v>1800.624781510845</v>
       </c>
       <c r="R7">
-        <v>1734.549991077156</v>
+        <v>16205.62303359761</v>
       </c>
       <c r="S7">
-        <v>0.08812734463188741</v>
+        <v>0.08764136742579956</v>
       </c>
       <c r="T7">
-        <v>0.08812734463188741</v>
+        <v>0.08764136742579957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8811408249486</v>
+        <v>18.11712033333333</v>
       </c>
       <c r="H8">
-        <v>17.8811408249486</v>
+        <v>54.351361</v>
       </c>
       <c r="I8">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="J8">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.40118833281941</v>
+        <v>3.460132666666667</v>
       </c>
       <c r="N8">
-        <v>3.40118833281941</v>
+        <v>10.380398</v>
       </c>
       <c r="O8">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="P8">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="Q8">
-        <v>60.81712755131601</v>
+        <v>62.68763989129755</v>
       </c>
       <c r="R8">
-        <v>60.81712755131601</v>
+        <v>564.1887590216779</v>
       </c>
       <c r="S8">
-        <v>0.003089938016665599</v>
+        <v>0.003051180088813149</v>
       </c>
       <c r="T8">
-        <v>0.003089938016665599</v>
+        <v>0.003051180088813149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8811408249486</v>
+        <v>18.11712033333333</v>
       </c>
       <c r="H9">
-        <v>17.8811408249486</v>
+        <v>54.351361</v>
       </c>
       <c r="I9">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="J9">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>181.853066575229</v>
+        <v>183.09167</v>
       </c>
       <c r="N9">
-        <v>181.853066575229</v>
+        <v>549.27501</v>
       </c>
       <c r="O9">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143522</v>
       </c>
       <c r="P9">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143523</v>
       </c>
       <c r="Q9">
-        <v>3251.740292880423</v>
+        <v>3317.093817420956</v>
       </c>
       <c r="R9">
-        <v>3251.740292880423</v>
+        <v>29853.84435678861</v>
       </c>
       <c r="S9">
-        <v>0.1652112876067119</v>
+        <v>0.1614520920868972</v>
       </c>
       <c r="T9">
-        <v>0.1652112876067119</v>
+        <v>0.1614520920868972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8811408249486</v>
+        <v>18.11712033333333</v>
       </c>
       <c r="H10">
-        <v>17.8811408249486</v>
+        <v>54.351361</v>
       </c>
       <c r="I10">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="J10">
-        <v>0.1928327749161268</v>
+        <v>0.1887057902569366</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.0026190785927</v>
+        <v>27.44640466666667</v>
       </c>
       <c r="N10">
-        <v>27.0026190785927</v>
+        <v>82.339214</v>
       </c>
       <c r="O10">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="P10">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="Q10">
-        <v>482.8376343867599</v>
+        <v>497.2498160633615</v>
       </c>
       <c r="R10">
-        <v>482.8376343867599</v>
+        <v>4475.248344570254</v>
       </c>
       <c r="S10">
-        <v>0.02453154929274938</v>
+        <v>0.02420251808122626</v>
       </c>
       <c r="T10">
-        <v>0.02453154929274938</v>
+        <v>0.02420251808122626</v>
       </c>
     </row>
   </sheetData>
